--- a/airspeed_data._ansi.xlsx
+++ b/airspeed_data._ansi.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mebar\Documents\airspeedData2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsuki/data/birdman/BIRD2019_Airspeed_Data/airspeedData2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1BA2C5-97AD-4F98-AC80-0251E656CC22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC537F-130E-7C41-A000-A9972C749DA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="7660" yWindow="2080" windowWidth="20580" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airspeed_data2._ansi" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>気温 (℃)</t>
   </si>
@@ -36,12 +45,40 @@
   <si>
     <t xml:space="preserve">v^2 </t>
   </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>v^2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1000p</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,7 +1123,417 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>25</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>℃</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27893744531933506"/>
+          <c:y val="6.4814814814814811E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>184.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>193.13033333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201.767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.77933333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.35366666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214.60966666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232.30966666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>234.91636666666662</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255.08366666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269.70666666666671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>344.78733333333332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>377.39033333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F352-C24F-8879-C6356A5ED699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1096209295"/>
+        <c:axId val="1091184079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1096209295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091184079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1091184079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1096209295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1642,6 +2089,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1663,6 +2626,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A8C5DF-3CE9-4818-9119-E264D70114A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A54158-E0D5-654D-B167-B5F5605DD4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,16 +2983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>19.5</v>
       </c>
@@ -2022,7 +3026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5">
       <c r="B3">
         <v>2.5</v>
       </c>
@@ -2036,7 +3040,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2050,7 +3054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>3.5</v>
       </c>
@@ -2064,7 +3068,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2078,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2092,7 +3096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2106,7 +3110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>6.8</v>
       </c>
@@ -2120,7 +3124,7 @@
         <v>46.24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5">
       <c r="B10">
         <v>7.5</v>
       </c>
@@ -2134,7 +3138,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>8.5</v>
       </c>
@@ -2148,7 +3152,7 @@
         <v>72.25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>9.3000000000000007</v>
       </c>
@@ -2162,7 +3166,7 @@
         <v>86.49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2176,7 +3180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>11.3</v>
       </c>
@@ -2190,7 +3194,7 @@
         <v>127.69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>11.7</v>
       </c>
@@ -2204,7 +3208,7 @@
         <v>136.88999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>12.4</v>
       </c>
@@ -2218,7 +3222,7 @@
         <v>153.76</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5">
       <c r="B17">
         <v>13.5</v>
       </c>
@@ -2232,12 +3236,384 @@
         <v>182.25</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18">
         <v>0.28884900000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7278CD-E997-454A-B843-000D39549A74}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.19253500000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.193443</v>
+      </c>
+      <c r="D2">
+        <v>0.193413</v>
+      </c>
+      <c r="E2">
+        <f>($B2+$C2+$D2)/3</f>
+        <v>0.19313033333333332</v>
+      </c>
+      <c r="F2">
+        <f>A2*A2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>$E2*1000</f>
+        <v>193.13033333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2.6</v>
+      </c>
+      <c r="B3">
+        <v>0.205986</v>
+      </c>
+      <c r="C3">
+        <v>0.19905900000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.20025599999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E18" si="0">($B3+$C3+$D3)/3</f>
+        <v>0.201767</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="1">A3*A3</f>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="2">$E3*1000</f>
+        <v>201.767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3.4</v>
+      </c>
+      <c r="B4">
+        <v>0.20266000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.20507</v>
+      </c>
+      <c r="D4">
+        <v>0.21260799999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.20677933333333334</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>206.77933333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.210175</v>
+      </c>
+      <c r="C5">
+        <v>0.215256</v>
+      </c>
+      <c r="D5">
+        <v>0.21462999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.21335366666666666</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>213.35366666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.220085</v>
+      </c>
+      <c r="C6">
+        <v>0.22128300000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.202461</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.21460966666666667</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>214.60966666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.22563900000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.228828</v>
+      </c>
+      <c r="D7">
+        <v>0.24246200000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.23230966666666666</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>232.30966666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.2411421</v>
+      </c>
+      <c r="C8">
+        <v>0.232574</v>
+      </c>
+      <c r="D8">
+        <v>0.23103299999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.23491636666666663</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>234.91636666666662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.25811800000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.25168600000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.25544699999999998</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.25508366666666665</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>255.08366666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.25898700000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.27143899999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.278694</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.26970666666666671</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>269.70666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>13.6</v>
+      </c>
+      <c r="B15">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.34429900000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.32906299999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.34478733333333333</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>184.95999999999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>344.78733333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14.5</v>
+      </c>
+      <c r="B16">
+        <v>0.37534299999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.37337500000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.38345299999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.37739033333333333</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>210.25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>377.39033333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
